--- a/dsa/DSA_Assingment2/programs.xlsx
+++ b/dsa/DSA_Assingment2/programs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Program Name</t>
   </si>
@@ -23,61 +23,58 @@
     <t>IT1</t>
   </si>
   <si>
-    <t>4</t>
+    <t>89</t>
   </si>
   <si>
     <t>IT2</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>IT3</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>IT4</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>IT5</t>
+  </si>
+  <si>
     <t>85</t>
   </si>
   <si>
-    <t>IT3</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>IT4</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>IT5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>IT6</t>
   </si>
   <si>
-    <t>82</t>
+    <t>6</t>
   </si>
   <si>
     <t>IT7</t>
   </si>
   <si>
-    <t>1</t>
+    <t>13</t>
   </si>
   <si>
     <t>IT8</t>
   </si>
   <si>
-    <t>32</t>
+    <t>29</t>
   </si>
   <si>
     <t>IT9</t>
   </si>
   <si>
-    <t>95</t>
+    <t>47</t>
   </si>
   <si>
     <t>IT10</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
